--- a/data/case1/15/Qlm2_2.xlsx
+++ b/data/case1/15/Qlm2_2.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.19745566556345295</v>
+        <v>-0.24739049268230673</v>
       </c>
       <c r="B1" s="0">
-        <v>0.19700659886775185</v>
+        <v>0.24671754962511017</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.13740987495794688</v>
+        <v>-0.18271156586920068</v>
       </c>
       <c r="B2" s="0">
-        <v>0.13625068227948844</v>
+        <v>0.18082271212840872</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.080051487816707123</v>
+        <v>-0.13110359287558282</v>
       </c>
       <c r="B3" s="0">
-        <v>0.079808125819628373</v>
+        <v>0.13047791445741552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.071808125842172998</v>
+        <v>-0.12247791454957735</v>
       </c>
       <c r="B4" s="0">
-        <v>0.071603443398156941</v>
+        <v>0.12190644392379468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.06860344341025737</v>
+        <v>-0.11890644397745476</v>
       </c>
       <c r="B5" s="0">
-        <v>0.067932316780513702</v>
+        <v>0.11694840377778526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.052697961595356446</v>
+        <v>-0.052743284399484835</v>
       </c>
       <c r="B6" s="0">
-        <v>0.052096204583406802</v>
+        <v>0.052124119833676374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.042096204613755184</v>
+        <v>-0.042124119963311113</v>
       </c>
       <c r="B7" s="0">
-        <v>0.041944341794186268</v>
+        <v>0.041968119059516695</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.031944341825717704</v>
+        <v>-0.031968119192976374</v>
       </c>
       <c r="B8" s="0">
-        <v>0.031659037222390385</v>
+        <v>0.031674498244992133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029659037236811958</v>
+        <v>-0.029674498310387598</v>
       </c>
       <c r="B9" s="0">
-        <v>0.029419325462685553</v>
+        <v>0.029427825356340254</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027419325478229339</v>
+        <v>-0.027427825424796382</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027402527708307645</v>
+        <v>0.027412084544451432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024402527726101297</v>
+        <v>-0.024412084622075447</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024375164496890811</v>
+        <v>0.024384731321569042</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020875164516192424</v>
+        <v>-0.02088473140469338</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020675937535102662</v>
+        <v>0.020679478697753773</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017175937555505172</v>
+        <v>-0.017179478783707403</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017084984914519374</v>
+        <v>0.017086280599897918</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090849849454857079</v>
+        <v>-0.0090862807262475087</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090550606171442283</v>
+        <v>0.0090560721257340049</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080550606322473683</v>
+        <v>-0.0080560721897304788</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080357201695546721</v>
+        <v>0.0080365805513356037</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060357201871372723</v>
+        <v>-0.0060365806245790132</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060037799056704699</v>
+        <v>0.0060034719498696099</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040037799234546867</v>
+        <v>-0.0040034720231512111</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999775535144</v>
+        <v>0.0039999999086690607</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.05359672392415149</v>
+        <v>-0.058005983811934669</v>
       </c>
       <c r="B18" s="0">
-        <v>0.053483136164338418</v>
+        <v>0.057863115314916058</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.049483136174364617</v>
+        <v>-0.012091701022866719</v>
       </c>
       <c r="B19" s="0">
-        <v>0.048660677183262724</v>
+        <v>0.012016404092952016</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.044660677196457499</v>
+        <v>-0.0080164041349135573</v>
       </c>
       <c r="B20" s="0">
-        <v>0.044426349412033161</v>
+        <v>0.0080056663560679198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.040426349425953134</v>
+        <v>-0.0040056663984140428</v>
       </c>
       <c r="B21" s="0">
-        <v>0.040064177980649873</v>
+        <v>0.0039999999573279155</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.052199194475107902</v>
+        <v>-0.045719119303380573</v>
       </c>
       <c r="B22" s="0">
-        <v>0.051932143724091162</v>
+        <v>0.045504008183092637</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.04050169448854124</v>
+        <v>-0.040504008245484613</v>
       </c>
       <c r="B23" s="0">
-        <v>0.04009963225273605</v>
+        <v>0.040099930738168865</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099632303984372</v>
+        <v>-0.020099930939627697</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999948036695</v>
+        <v>0.019999999795939694</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.013234355197003111</v>
+        <v>-0.062205119436873346</v>
       </c>
       <c r="B25" s="0">
-        <v>0.013232173057909691</v>
+        <v>0.062164022523104379</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.050482957824511843</v>
+        <v>-0.059664022587554655</v>
       </c>
       <c r="B26" s="0">
-        <v>0.050444938527487437</v>
+        <v>0.059612710958173665</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.047944938541068627</v>
+        <v>-0.05711271102478932</v>
       </c>
       <c r="B27" s="0">
-        <v>0.047737463523473522</v>
+        <v>0.05681733219033136</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.045737463538038092</v>
+        <v>-0.054817332261963614</v>
       </c>
       <c r="B28" s="0">
-        <v>0.045607124385615094</v>
+        <v>0.054626464047608181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.038607124413132077</v>
+        <v>-0.047626464170560823</v>
       </c>
       <c r="B29" s="0">
-        <v>0.038577965080365928</v>
+        <v>0.047580443889033042</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.021422034770143039</v>
+        <v>0.01241955551196039</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.021453951492160339</v>
+        <v>-0.012429897875388729</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014023515067048464</v>
+        <v>-0.029042953617045342</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001519820176611</v>
+        <v>0.028981799102346884</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040015198546488051</v>
+        <v>-0.01898179925493082</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999792268426</v>
+        <v>0.018955321092457567</v>
       </c>
     </row>
   </sheetData>
